--- a/1-estrategia/evaluaciones/MiApellidoMiNombre-20181010.xlsx
+++ b/1-estrategia/evaluaciones/MiApellidoMiNombre-20181010.xlsx
@@ -972,14 +972,14 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="54.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="29.42"/>
